--- a/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D58D2AF-82CE-494F-A3AE-F1F3116E1304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE44D96-8421-44A5-B2DA-B9A0B4A761D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D04A2687-ED58-4414-8ED8-CE3E147B2E5A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C4568FD-48DD-44B2-8BDE-57D30F9A2810}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -272,7 +272,7 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares según si la temperatura es insuficiente en 2015 (Tasa respuesta: 75,96%)</t>
+    <t>Hogares según si la temperatura es insuficiente en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -341,271 +341,271 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>63,18%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>55,94%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>61,97%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>43,83%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
   </si>
   <si>
     <t>59,59%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFC63F2-CCB0-4B05-A6E9-46757FDB40A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0D051F-E627-42E5-863C-FD110DE2E1BA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725A0A3A-6176-4906-B91E-F787373C58EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2E26F-92C7-49E6-A14F-5061E973211C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520659E0-0D9E-4335-8C3C-F0E71975199B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91428BE7-9B8C-415C-A6A9-42E59211AAA3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40266BB-4E1C-4E13-BE3D-07AAA54248DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6012647-532D-4B45-9E3D-50632174EBA0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE44D96-8421-44A5-B2DA-B9A0B4A761D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13CB8A8D-4344-49DB-ACA1-A6C8BF58E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C4568FD-48DD-44B2-8BDE-57D30F9A2810}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4943342A-8F56-4C44-BC41-043EBA8D5C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Hogares según si la temperatura es insuficiente en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
@@ -95,57 +95,57 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
     <t>99,24%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>99,66%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>98,5%</t>
+  </si>
+  <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
@@ -164,21 +164,21 @@
     <t>99,57%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>99,74%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
@@ -188,87 +188,87 @@
     <t>Hogares según si la temperatura es insuficiente en 2012 (Tasa respuesta: 69,37%)</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>98,76%</t>
+  </si>
+  <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>98,84%</t>
+  </si>
+  <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
@@ -281,51 +281,51 @@
     <t>98,73%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,08%</t>
+  </si>
+  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>98,88%</t>
+  </si>
+  <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
@@ -338,274 +338,274 @@
     <t>Hogares según si la temperatura es insuficiente en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
   </si>
   <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
   </si>
   <si>
     <t>60,7%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0D051F-E627-42E5-863C-FD110DE2E1BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61475EA2-EFFE-42DC-B408-467C0E79639E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1186,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
-        <v>88464</v>
+        <v>78559</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1201,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7">
-        <v>78559</v>
+        <v>88464</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1237,25 +1237,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7">
+        <v>78559</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>132</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>88464</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>119</v>
-      </c>
-      <c r="I6" s="7">
-        <v>78559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1341,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>188731</v>
+        <v>187246</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1356,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I8" s="7">
-        <v>187246</v>
+        <v>188731</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1392,25 +1392,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>279</v>
+      </c>
+      <c r="D9" s="7">
+        <v>187246</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>284</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>188731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>279</v>
-      </c>
-      <c r="I9" s="7">
-        <v>187246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1496,10 +1496,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>103261</v>
+        <v>86479</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1511,10 +1511,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="I11" s="7">
-        <v>86479</v>
+        <v>103261</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1547,25 +1547,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7">
+        <v>86479</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>153</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>103261</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>127</v>
-      </c>
-      <c r="I12" s="7">
-        <v>86479</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1651,10 +1651,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>148094</v>
+        <v>151075</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1666,10 +1666,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
-        <v>151075</v>
+        <v>148094</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1702,25 +1702,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>221</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151075</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>223</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>148094</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>221</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151075</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1806,10 +1806,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="D17" s="7">
-        <v>528550</v>
+        <v>503359</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1821,10 +1821,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="I17" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1857,25 +1857,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>746</v>
+      </c>
+      <c r="D18" s="7">
+        <v>503359</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>792</v>
       </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>746</v>
-      </c>
       <c r="I18" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2E26F-92C7-49E6-A14F-5061E973211C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBD2F8C-9CF4-4BC7-B9EC-E773CE9EB747}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2093,10 +2093,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>112042</v>
+        <v>104121</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2108,10 +2108,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2144,25 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7">
+        <v>104121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>158</v>
       </c>
-      <c r="D6" s="7">
-        <v>112042</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>154</v>
-      </c>
       <c r="I6" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2248,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D8" s="7">
-        <v>193224</v>
+        <v>159344</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2263,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="I8" s="7">
-        <v>159344</v>
+        <v>193224</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -2299,25 +2299,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>231</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159344</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>268</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>193224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>231</v>
-      </c>
-      <c r="I9" s="7">
-        <v>159344</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2394,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,10 +2403,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>101812</v>
+        <v>97980</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2418,10 +2418,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>97980</v>
+        <v>101812</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2454,25 +2454,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7">
+        <v>97980</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>149</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>101812</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>138</v>
-      </c>
-      <c r="I12" s="7">
-        <v>97980</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2558,10 +2558,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7">
-        <v>131702</v>
+        <v>115520</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -2573,10 +2573,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>115520</v>
+        <v>131702</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -2609,25 +2609,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>164</v>
+      </c>
+      <c r="D15" s="7">
+        <v>115520</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>194</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>131702</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>164</v>
-      </c>
-      <c r="I15" s="7">
-        <v>115520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2713,10 +2713,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>687</v>
       </c>
       <c r="D17" s="7">
-        <v>538781</v>
+        <v>476965</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -2728,10 +2728,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="I17" s="7">
-        <v>476965</v>
+        <v>538781</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -2764,25 +2764,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>687</v>
+      </c>
+      <c r="D18" s="7">
+        <v>476965</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>769</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91428BE7-9B8C-415C-A6A9-42E59211AAA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EC1E8C-76C2-4DA5-BCBF-5280F86E23B9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3000,31 +3000,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>98267</v>
+        <v>102704</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I5" s="7">
-        <v>102704</v>
+        <v>98267</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3051,25 +3051,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>165</v>
+      </c>
+      <c r="D6" s="7">
+        <v>102704</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>98267</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>165</v>
-      </c>
-      <c r="I6" s="7">
-        <v>102704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3155,10 +3155,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>210592</v>
+        <v>156265</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -3170,10 +3170,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>156265</v>
+        <v>210592</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -3206,25 +3206,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>248</v>
+      </c>
+      <c r="D9" s="7">
+        <v>156265</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>311</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>210592</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>248</v>
-      </c>
-      <c r="I9" s="7">
-        <v>156265</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3310,10 +3310,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>132171</v>
+        <v>144314</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -3325,10 +3325,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="I11" s="7">
-        <v>144314</v>
+        <v>132171</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -3361,25 +3361,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>207</v>
+      </c>
+      <c r="D12" s="7">
+        <v>144314</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>188</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132171</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>207</v>
-      </c>
-      <c r="I12" s="7">
-        <v>144314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3465,10 +3465,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" s="7">
-        <v>130004</v>
+        <v>122106</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -3480,10 +3480,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>122106</v>
+        <v>130004</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3516,25 +3516,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7">
+        <v>122106</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>176</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>130004</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>170</v>
-      </c>
-      <c r="I15" s="7">
-        <v>122106</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3581,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3620,31 +3620,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>825</v>
+        <v>790</v>
       </c>
       <c r="D17" s="7">
-        <v>571033</v>
+        <v>525390</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="I17" s="7">
-        <v>525390</v>
+        <v>571033</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3671,25 +3671,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>790</v>
+      </c>
+      <c r="D18" s="7">
+        <v>525390</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>825</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>571033</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>790</v>
-      </c>
-      <c r="I18" s="7">
-        <v>525390</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3738,7 +3738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6012647-532D-4B45-9E3D-50632174EBA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA94253B-456D-4BE5-8A73-A2F6B2AB5A6D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,10 +3856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>19146</v>
+        <v>23288</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>99</v>
@@ -3871,10 +3871,10 @@
         <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>23518</v>
+        <v>19173</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>102</v>
@@ -3889,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>42663</v>
+        <v>42460</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>105</v>
@@ -3907,10 +3907,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>39357</v>
+        <v>34223</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>108</v>
@@ -3922,10 +3922,10 @@
         <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>33851</v>
+        <v>42271</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>111</v>
@@ -3940,7 +3940,7 @@
         <v>146</v>
       </c>
       <c r="N5" s="7">
-        <v>73208</v>
+        <v>76495</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -3958,25 +3958,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3991,7 +3991,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4011,10 +4011,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7">
-        <v>77233</v>
+        <v>58631</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>117</v>
@@ -4026,10 +4026,10 @@
         <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="I7" s="7">
-        <v>60385</v>
+        <v>78493</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>120</v>
@@ -4044,7 +4044,7 @@
         <v>209</v>
       </c>
       <c r="N7" s="7">
-        <v>137617</v>
+        <v>137124</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>123</v>
@@ -4062,10 +4062,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>98066</v>
+        <v>100668</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>126</v>
@@ -4077,10 +4077,10 @@
         <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I8" s="7">
-        <v>98380</v>
+        <v>104061</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>129</v>
@@ -4095,7 +4095,7 @@
         <v>325</v>
       </c>
       <c r="N8" s="7">
-        <v>196446</v>
+        <v>204729</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>132</v>
@@ -4113,25 +4113,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4146,7 +4146,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4166,10 +4166,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>82142</v>
+        <v>80238</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>135</v>
@@ -4181,10 +4181,10 @@
         <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>83445</v>
+        <v>83141</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>138</v>
@@ -4199,7 +4199,7 @@
         <v>196</v>
       </c>
       <c r="N10" s="7">
-        <v>165587</v>
+        <v>163380</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>141</v>
@@ -4217,10 +4217,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>119435</v>
+        <v>92915</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>144</v>
@@ -4232,10 +4232,10 @@
         <v>146</v>
       </c>
       <c r="H11" s="7">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I11" s="7">
-        <v>92747</v>
+        <v>128406</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>147</v>
@@ -4250,7 +4250,7 @@
         <v>279</v>
       </c>
       <c r="N11" s="7">
-        <v>212182</v>
+        <v>221320</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>150</v>
@@ -4268,25 +4268,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173153</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176192</v>
+        <v>211547</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4301,7 +4301,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377769</v>
+        <v>384700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4321,10 +4321,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>107850</v>
+        <v>97207</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>153</v>
@@ -4336,10 +4336,10 @@
         <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" s="7">
-        <v>102675</v>
+        <v>106445</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>156</v>
@@ -4354,7 +4354,7 @@
         <v>263</v>
       </c>
       <c r="N13" s="7">
-        <v>210525</v>
+        <v>203651</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>159</v>
@@ -4372,10 +4372,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>181574</v>
+        <v>177251</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>162</v>
@@ -4387,10 +4387,10 @@
         <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>156939</v>
+        <v>199038</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>165</v>
@@ -4405,7 +4405,7 @@
         <v>420</v>
       </c>
       <c r="N14" s="7">
-        <v>338513</v>
+        <v>376290</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>168</v>
@@ -4423,25 +4423,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274458</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>342</v>
       </c>
-      <c r="D15" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259614</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4456,7 +4456,7 @@
         <v>683</v>
       </c>
       <c r="N15" s="7">
-        <v>549038</v>
+        <v>579941</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4476,10 +4476,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D16" s="7">
-        <v>286371</v>
+        <v>259364</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>171</v>
@@ -4491,10 +4491,10 @@
         <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I16" s="7">
-        <v>270023</v>
+        <v>287252</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>174</v>
@@ -4509,7 +4509,7 @@
         <v>747</v>
       </c>
       <c r="N16" s="7">
-        <v>556393</v>
+        <v>546616</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>177</v>
@@ -4527,10 +4527,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="D17" s="7">
-        <v>438431</v>
+        <v>405057</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>180</v>
@@ -4542,10 +4542,10 @@
         <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="I17" s="7">
-        <v>381917</v>
+        <v>473776</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>183</v>
@@ -4560,7 +4560,7 @@
         <v>1170</v>
       </c>
       <c r="N17" s="7">
-        <v>820349</v>
+        <v>878833</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>186</v>
@@ -4578,25 +4578,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664421</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>651940</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4611,7 +4611,7 @@
         <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>1376742</v>
+        <v>1425449</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
